--- a/DateBase/orders/Dang Nguyen_2025-9-28.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-28.xlsx
@@ -1006,6 +1006,9 @@
       <c r="G2" t="str">
         <v>023161101492012102086815101215583010181510151518515203030265515151510105151510205515151553526559117</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
